--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SamuelEke\Documents\UiPath\GitHub\fwf-carsOnMobile.de\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9EDC75D-A182-4AB2-9BF1-0972940E3A78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{799C0B1B-5BB8-4368-9145-522055B67CE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14303" yWindow="-98" windowWidth="19394" windowHeight="10276" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14303" yWindow="-98" windowWidth="19394" windowHeight="10276" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
   <si>
     <t>Name</t>
   </si>
@@ -117,13 +117,44 @@
   </si>
   <si>
     <t>Manual gearbox</t>
+  </si>
+  <si>
+    <t>maxPrice</t>
+  </si>
+  <si>
+    <t>maxKM</t>
+  </si>
+  <si>
+    <t>minYear</t>
+  </si>
+  <si>
+    <t>managerMail</t>
+  </si>
+  <si>
+    <t>apiDogs.Mail.Manager</t>
+  </si>
+  <si>
+    <t>subjectForManager</t>
+  </si>
+  <si>
+    <t>Filtered Car Data from mobile.de</t>
+  </si>
+  <si>
+    <t>mailBody</t>
+  </si>
+  <si>
+    <t>What did the ocean say to the sand?
+Nothing — it just waved.</t>
+  </si>
+  <si>
+    <t>mobileDotDeDataPath</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -149,12 +180,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF464E55"/>
-      <name val="Noto Sans"/>
-      <family val="2"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -164,6 +189,25 @@
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF464E55"/>
+      <name val="Noto Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Georgia"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -185,19 +229,25 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -604,7 +654,7 @@
       <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1611,8 +1661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z988"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1724,26 +1774,65 @@
       <c r="A16" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17"/>
-    <row r="18" ht="14.25" customHeight="1"/>
-    <row r="19" ht="14.25" customHeight="1"/>
-    <row r="20" ht="14.25" customHeight="1"/>
-    <row r="21" ht="14.25" customHeight="1"/>
-    <row r="22" ht="14.25" customHeight="1"/>
-    <row r="23" ht="14.25" customHeight="1"/>
-    <row r="24" ht="14.25" customHeight="1"/>
-    <row r="25" ht="14.25" customHeight="1"/>
-    <row r="26" ht="14.25" customHeight="1"/>
-    <row r="27" ht="14.25" customHeight="1"/>
-    <row r="28" ht="14.25" customHeight="1"/>
-    <row r="29" ht="14.25" customHeight="1"/>
-    <row r="30" ht="14.25" customHeight="1"/>
-    <row r="31" ht="14.25" customHeight="1"/>
-    <row r="32" ht="14.25" customHeight="1"/>
+    <row r="17" spans="1:2"/>
+    <row r="18" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="20" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="22" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="24" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A24" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="26" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="14.25" customHeight="1">
+      <c r="B27" s="7"/>
+    </row>
+    <row r="28" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A28" s="2"/>
+    </row>
+    <row r="29" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="30" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="31" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="32" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="33" ht="14.25" customHeight="1"/>
     <row r="34" ht="14.25" customHeight="1"/>
     <row r="35" ht="14.25" customHeight="1"/>
@@ -2711,8 +2800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2768,10 +2857,21 @@
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A3" s="2"/>
-      <c r="B3" s="4"/>
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="4" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
